--- a/Station.xlsx
+++ b/Station.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Номер</t>
   </si>
@@ -38,24 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Координата долгота</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Залупа 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1241254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.4553322</t>
   </si>
 </sst>
 </file>
@@ -177,7 +159,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -222,26 +204,7 @@
         <v>234234</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
